--- a/results/diathermy_APOS/data_uniquie_diathermy_APOS_recipe.xlsx
+++ b/results/diathermy_APOS/data_uniquie_diathermy_APOS_recipe.xlsx
@@ -507,1172 +507,1172 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.009065536955653918</v>
+        <v>0.009065535944352641</v>
       </c>
       <c r="B2">
-        <v>2.639956211380583</v>
+        <v>2.639955920086755</v>
       </c>
       <c r="C2">
-        <v>0.5500091692687824</v>
+        <v>0.5500091614318895</v>
       </c>
       <c r="D2">
-        <v>0.6940489487494536</v>
+        <v>0.6940489382729578</v>
       </c>
       <c r="E2">
-        <v>28.16842297787704</v>
+        <v>28.1684214724032</v>
       </c>
       <c r="F2">
-        <v>0.6763877431858594</v>
+        <v>0.6763876762679819</v>
       </c>
       <c r="G2">
-        <v>0.002606655691846752</v>
+        <v>0.002606655647951525</v>
       </c>
       <c r="H2">
-        <v>0.001546858989698854</v>
+        <v>0.001546858986236568</v>
       </c>
       <c r="I2">
-        <v>0.2526978911013802</v>
+        <v>0.2526978387635115</v>
       </c>
       <c r="J2">
-        <v>7.862763244849168</v>
+        <v>7.862763222345888</v>
       </c>
       <c r="K2">
-        <v>0.7180505951266538</v>
+        <v>0.7180506203225899</v>
       </c>
       <c r="L2">
-        <v>0.5155783265463894</v>
+        <v>0.5155782998016919</v>
       </c>
       <c r="M2">
-        <v>0.03982228682632128</v>
+        <v>0.03982228169341689</v>
       </c>
       <c r="N2">
-        <v>3.134561307907676E-06</v>
+        <v>3.134561240607412E-06</v>
       </c>
       <c r="O2">
-        <v>0.003151963355284742</v>
+        <v>0.003151962742679014</v>
       </c>
       <c r="P2">
-        <v>0.005630122611938075</v>
+        <v>0.005630121477656703</v>
       </c>
       <c r="Q2">
-        <v>0.005772678194630023</v>
+        <v>0.005772677024375735</v>
       </c>
       <c r="R2">
-        <v>0.04896439404776374</v>
+        <v>0.04896439379054224</v>
       </c>
       <c r="S2">
-        <v>1.715536537751204E-08</v>
+        <v>1.715536390583731E-08</v>
       </c>
       <c r="T2">
-        <v>7.183403129547227E-06</v>
+        <v>7.183402293819326E-06</v>
       </c>
       <c r="U2">
-        <v>0.1390609900130699</v>
+        <v>0.139060971290827</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>5.130593339369405E-05</v>
+        <v>5.19961523815137E-05</v>
       </c>
       <c r="B3">
-        <v>0.001239734944335025</v>
+        <v>0.001450806289674415</v>
       </c>
       <c r="C3">
-        <v>0.004623943949515858</v>
+        <v>0.0046303034972598</v>
       </c>
       <c r="D3">
-        <v>0.005909527283471151</v>
+        <v>0.005918208052813697</v>
       </c>
       <c r="E3">
-        <v>0.4072848735715746</v>
+        <v>0.4076955970297555</v>
       </c>
       <c r="F3">
-        <v>0.0003757564317681298</v>
+        <v>0.0004278271656823375</v>
       </c>
       <c r="G3">
-        <v>5.683871586428959E-06</v>
+        <v>5.772637040790681E-06</v>
       </c>
       <c r="H3">
-        <v>1.246445392331145E-07</v>
+        <v>1.341881214302864E-07</v>
       </c>
       <c r="I3">
-        <v>0.0005712204438244764</v>
+        <v>0.0006294085195752994</v>
       </c>
       <c r="J3">
-        <v>0.06689872157614346</v>
+        <v>0.06706750247244364</v>
       </c>
       <c r="K3">
-        <v>0.0001021749257507134</v>
+        <v>0.0001247230183958613</v>
       </c>
       <c r="L3">
-        <v>0.0001484512624390885</v>
+        <v>0.0001520081358057082</v>
       </c>
       <c r="M3">
-        <v>0.0002249878760423067</v>
+        <v>0.0002293780034227816</v>
       </c>
       <c r="N3">
-        <v>1.119043000236083E-09</v>
+        <v>1.205004840907632E-09</v>
       </c>
       <c r="O3">
-        <v>1.66811845415649E-05</v>
+        <v>1.710010382586118E-05</v>
       </c>
       <c r="P3">
-        <v>9.045260827409017E-06</v>
+        <v>9.556816894715163E-06</v>
       </c>
       <c r="Q3">
-        <v>9.29158640002283E-06</v>
+        <v>9.816901709367727E-06</v>
       </c>
       <c r="R3">
-        <v>2.104675991518458E-05</v>
+        <v>2.97989183900673E-05</v>
       </c>
       <c r="S3">
-        <v>2.914388056527513E-11</v>
+        <v>3.005014040738728E-11</v>
       </c>
       <c r="T3">
-        <v>2.882945673351661E-08</v>
+        <v>2.954041259329401E-08</v>
       </c>
       <c r="U3">
-        <v>0.0001589814742091475</v>
+        <v>0.00017045476428875</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.009062377040764397</v>
+        <v>0.009062374540539308</v>
       </c>
       <c r="B4">
-        <v>3.205257347828827</v>
+        <v>3.205256411292076</v>
       </c>
       <c r="C4">
-        <v>0.08392869355968491</v>
+        <v>0.08392864240572968</v>
       </c>
       <c r="D4">
-        <v>0.1123832523250768</v>
+        <v>0.1123831829021016</v>
       </c>
       <c r="E4">
-        <v>7.421894920571217</v>
+        <v>7.421889303968148</v>
       </c>
       <c r="F4">
-        <v>1.898586692101553</v>
+        <v>1.89858652785242</v>
       </c>
       <c r="G4">
-        <v>0.0008007067710671295</v>
+        <v>0.0008007065455149369</v>
       </c>
       <c r="H4">
-        <v>0.0001144681800353783</v>
+        <v>0.0001144681523293308</v>
       </c>
       <c r="I4">
-        <v>0.132482743000462</v>
+        <v>0.1324824525600043</v>
       </c>
       <c r="J4">
-        <v>1.984333521665278</v>
+        <v>1.984332467959016</v>
       </c>
       <c r="K4">
-        <v>0.202467267349594</v>
+        <v>0.2024672163388549</v>
       </c>
       <c r="L4">
-        <v>0.09313489846145326</v>
+        <v>0.09313486693476761</v>
       </c>
       <c r="M4">
-        <v>0.02102109107072237</v>
+        <v>0.0210210578706998</v>
       </c>
       <c r="N4">
-        <v>5.930316878046737E-07</v>
+        <v>5.930314000462118E-07</v>
       </c>
       <c r="O4">
-        <v>0.004042495980185728</v>
+        <v>0.004042494474900176</v>
       </c>
       <c r="P4">
-        <v>0.007820237756296311</v>
+        <v>0.007820234793751952</v>
       </c>
       <c r="Q4">
-        <v>0.00852861667845139</v>
+        <v>0.008528613604306481</v>
       </c>
       <c r="R4">
-        <v>0.04824889239027558</v>
+        <v>0.04824888828839305</v>
       </c>
       <c r="S4">
-        <v>1.351638618508067E-08</v>
+        <v>1.351638209805688E-08</v>
       </c>
       <c r="T4">
-        <v>6.522988484503365E-06</v>
+        <v>6.52298545224876E-06</v>
       </c>
       <c r="U4">
-        <v>0.7124085125211773</v>
+        <v>0.7124084572559168</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>5.289976585905238E-05</v>
+        <v>2.079559323698257E-05</v>
       </c>
       <c r="B5">
-        <v>0.001517133905214793</v>
+        <v>0.0009947397262402805</v>
       </c>
       <c r="C5">
-        <v>0.001169367091452044</v>
+        <v>0.0009575823811794244</v>
       </c>
       <c r="D5">
-        <v>0.001787398916228912</v>
+        <v>0.001492127986780571</v>
       </c>
       <c r="E5">
-        <v>0.1090968148074253</v>
+        <v>0.04272095827121464</v>
       </c>
       <c r="F5">
-        <v>0.000403557641482869</v>
+        <v>0.0002629456371974777</v>
       </c>
       <c r="G5">
-        <v>1.857084155882294E-06</v>
+        <v>1.478708877658427E-06</v>
       </c>
       <c r="H5">
-        <v>1.606075923502477E-07</v>
+        <v>8.908300315998368E-08</v>
       </c>
       <c r="I5">
-        <v>0.0006413280071171565</v>
+        <v>0.0002723185514149859</v>
       </c>
       <c r="J5">
-        <v>0.0217391763779546</v>
+        <v>0.01792910696880943</v>
       </c>
       <c r="K5">
-        <v>0.0001416610636107521</v>
+        <v>7.749260853821474E-05</v>
       </c>
       <c r="L5">
-        <v>6.831224662216726E-05</v>
+        <v>5.159391639459118E-05</v>
       </c>
       <c r="M5">
-        <v>0.0002771010202145841</v>
+        <v>0.0001535267402870331</v>
       </c>
       <c r="N5">
-        <v>2.965689678006576E-09</v>
+        <v>2.637568160563013E-09</v>
       </c>
       <c r="O5">
-        <v>1.715419645709772E-05</v>
+        <v>6.990253060411614E-06</v>
       </c>
       <c r="P5">
-        <v>7.409846089696705E-06</v>
+        <v>5.360473984623682E-06</v>
       </c>
       <c r="Q5">
-        <v>7.625546361481061E-06</v>
+        <v>5.499652534764677E-06</v>
       </c>
       <c r="R5">
-        <v>6.340104610155062E-05</v>
+        <v>2.571622951070465E-05</v>
       </c>
       <c r="S5">
-        <v>2.054059933257138E-11</v>
+        <v>1.065958065083031E-11</v>
       </c>
       <c r="T5">
-        <v>1.941534221123283E-08</v>
+        <v>1.037001831807115E-08</v>
       </c>
       <c r="U5">
-        <v>0.0001768345484099725</v>
+        <v>0.0001119366470216642</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.01429598769401454</v>
+        <v>0.01466648705529383</v>
       </c>
       <c r="B6">
-        <v>0.7024951464664493</v>
+        <v>0.8181331436122864</v>
       </c>
       <c r="C6">
-        <v>1.342507347866739</v>
+        <v>1.345147230373903</v>
       </c>
       <c r="D6">
-        <v>1.723352672266226</v>
+        <v>1.726873700050483</v>
       </c>
       <c r="E6">
-        <v>102.6768297755028</v>
+        <v>102.7921917139166</v>
       </c>
       <c r="F6">
-        <v>0.1919688836591599</v>
+        <v>0.2206027726697578</v>
       </c>
       <c r="G6">
-        <v>0.001871780710240259</v>
+        <v>0.001923555541661509</v>
       </c>
       <c r="H6">
-        <v>5.540990848628726E-05</v>
+        <v>5.939690491862433E-05</v>
       </c>
       <c r="I6">
-        <v>0.1645532652775951</v>
+        <v>0.1693128445059389</v>
       </c>
       <c r="J6">
-        <v>19.70510884293027</v>
+        <v>19.78708879347137</v>
       </c>
       <c r="K6">
-        <v>0.06646748178186296</v>
+        <v>0.08032177073624715</v>
       </c>
       <c r="L6">
-        <v>0.05401351602659689</v>
+        <v>0.05565813844756901</v>
       </c>
       <c r="M6">
-        <v>0.06691016783795643</v>
+        <v>0.06716577248820038</v>
       </c>
       <c r="N6">
-        <v>4.559262979593806E-07</v>
+        <v>4.961653439456701E-07</v>
       </c>
       <c r="O6">
-        <v>0.004974788404795396</v>
+        <v>0.005208655564988682</v>
       </c>
       <c r="P6">
-        <v>0.003410622073188607</v>
+        <v>0.003672453320046114</v>
       </c>
       <c r="Q6">
-        <v>0.003499642454750946</v>
+        <v>0.003766581149402516</v>
       </c>
       <c r="R6">
-        <v>0.01008117687366773</v>
+        <v>0.0107498088443034</v>
       </c>
       <c r="S6">
-        <v>9.465350239451178E-09</v>
+        <v>9.954979256088598E-09</v>
       </c>
       <c r="T6">
-        <v>8.841560970380075E-06</v>
+        <v>9.132213614692961E-06</v>
       </c>
       <c r="U6">
-        <v>0.0623600161958407</v>
+        <v>0.06774779236952091</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.002301881210876561</v>
+        <v>0.002301881333123847</v>
       </c>
       <c r="B7">
-        <v>0.1652473774384771</v>
+        <v>0.1652474226687684</v>
       </c>
       <c r="C7">
-        <v>0.0168414410996555</v>
+        <v>0.01684144280664396</v>
       </c>
       <c r="D7">
-        <v>0.02314080461338192</v>
+        <v>0.02314080696506172</v>
       </c>
       <c r="E7">
-        <v>4.33866321754376</v>
+        <v>4.338663447419151</v>
       </c>
       <c r="F7">
-        <v>0.06836056097116439</v>
+        <v>0.06836056939112202</v>
       </c>
       <c r="G7">
-        <v>4.928300160167881E-05</v>
+        <v>4.928301117902927E-05</v>
       </c>
       <c r="H7">
-        <v>9.421560670051351E-06</v>
+        <v>9.421561815214249E-06</v>
       </c>
       <c r="I7">
-        <v>0.02807747600558223</v>
+        <v>0.02807748845272116</v>
       </c>
       <c r="J7">
-        <v>0.3179891261692515</v>
+        <v>0.3179891603838169</v>
       </c>
       <c r="K7">
-        <v>0.009525746001343632</v>
+        <v>0.009525747157865734</v>
       </c>
       <c r="L7">
-        <v>0.003024483344174331</v>
+        <v>0.003024483989459184</v>
       </c>
       <c r="M7">
-        <v>0.008941787654282159</v>
+        <v>0.00894178900412859</v>
       </c>
       <c r="N7">
-        <v>8.26572309416319E-08</v>
+        <v>8.265724405898946E-08</v>
       </c>
       <c r="O7">
-        <v>0.0007740388294239141</v>
+        <v>0.0007740389043747258</v>
       </c>
       <c r="P7">
-        <v>0.0004064415059880526</v>
+        <v>0.0004064416509949369</v>
       </c>
       <c r="Q7">
-        <v>0.0004353568884839426</v>
+        <v>0.0004353570383947512</v>
       </c>
       <c r="R7">
-        <v>0.004321420995927351</v>
+        <v>0.004321421160318577</v>
       </c>
       <c r="S7">
-        <v>1.130508670126587E-09</v>
+        <v>1.130508858241843E-09</v>
       </c>
       <c r="T7">
-        <v>8.151527628197713E-07</v>
+        <v>8.151529015493723E-07</v>
       </c>
       <c r="U7">
-        <v>0.02624265119608114</v>
+        <v>0.02624265389380857</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.00722357322058758</v>
+        <v>0.007223571461937163</v>
       </c>
       <c r="B8">
-        <v>2.428074844585256</v>
+        <v>2.42807420627791</v>
       </c>
       <c r="C8">
-        <v>0.07016811649374866</v>
+        <v>0.07016808918399031</v>
       </c>
       <c r="D8">
-        <v>0.09344667394149921</v>
+        <v>0.09344663654495131</v>
       </c>
       <c r="E8">
-        <v>6.606752370567104</v>
+        <v>6.606748918499515</v>
       </c>
       <c r="F8">
-        <v>1.333466841466529</v>
+        <v>1.333466724888244</v>
       </c>
       <c r="G8">
-        <v>0.0006782903395935972</v>
+        <v>0.0006782902020695679</v>
       </c>
       <c r="H8">
-        <v>0.0001927160437256031</v>
+        <v>0.0001927160277220376</v>
       </c>
       <c r="I8">
-        <v>0.1056186931012597</v>
+        <v>0.1056185109288</v>
       </c>
       <c r="J8">
-        <v>1.852968646416765</v>
+        <v>1.852968123002723</v>
       </c>
       <c r="K8">
-        <v>0.175885972944506</v>
+        <v>0.1758859575059693</v>
       </c>
       <c r="L8">
-        <v>0.4951721824277034</v>
+        <v>0.4951721689966245</v>
       </c>
       <c r="M8">
-        <v>0.1917812790147653</v>
+        <v>0.1917812586655231</v>
       </c>
       <c r="N8">
-        <v>7.518126503333699E-07</v>
+        <v>7.518124662324689E-07</v>
       </c>
       <c r="O8">
-        <v>0.00328192701054764</v>
+        <v>0.003281925932218396</v>
       </c>
       <c r="P8">
-        <v>0.006287097275590656</v>
+        <v>0.006287095211433546</v>
       </c>
       <c r="Q8">
-        <v>0.006798700398423056</v>
+        <v>0.00679869826968077</v>
       </c>
       <c r="R8">
-        <v>0.04489655074202095</v>
+        <v>0.04489654841960181</v>
       </c>
       <c r="S8">
-        <v>1.418889579304718E-08</v>
+        <v>1.418889308448968E-08</v>
       </c>
       <c r="T8">
-        <v>5.195974139746616E-06</v>
+        <v>5.195972138121005E-06</v>
       </c>
       <c r="U8">
-        <v>0.5372963390955795</v>
+        <v>0.5372963020050525</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.0120066866130913</v>
+        <v>0.01200667439681416</v>
       </c>
       <c r="B9">
-        <v>3.587523202927722</v>
+        <v>3.587519122253347</v>
       </c>
       <c r="C9">
-        <v>0.7517799778486921</v>
+        <v>0.7517797375955338</v>
       </c>
       <c r="D9">
-        <v>0.9481719389124202</v>
+        <v>0.948171615748396</v>
       </c>
       <c r="E9">
-        <v>38.26012431429283</v>
+        <v>38.26009728775919</v>
       </c>
       <c r="F9">
-        <v>0.9240501647827679</v>
+        <v>0.9240493913357954</v>
       </c>
       <c r="G9">
-        <v>0.003421065406639027</v>
+        <v>0.003421064446430713</v>
       </c>
       <c r="H9">
-        <v>0.001526492575189845</v>
+        <v>0.00152649246901354</v>
       </c>
       <c r="I9">
-        <v>0.3391497031344505</v>
+        <v>0.3391484851964869</v>
       </c>
       <c r="J9">
-        <v>10.44930859309748</v>
+        <v>10.44930429486173</v>
       </c>
       <c r="K9">
-        <v>0.9969392065352423</v>
+        <v>0.9969391077717443</v>
       </c>
       <c r="L9">
-        <v>0.7087070504910655</v>
+        <v>0.7087069343314228</v>
       </c>
       <c r="M9">
-        <v>0.04612455700651253</v>
+        <v>0.04612441906574286</v>
       </c>
       <c r="N9">
-        <v>4.133021535206217E-06</v>
+        <v>4.1330203734287E-06</v>
       </c>
       <c r="O9">
-        <v>0.004170293966523686</v>
+        <v>0.004170286896081227</v>
       </c>
       <c r="P9">
-        <v>0.007611853507422301</v>
+        <v>0.007611840217126625</v>
       </c>
       <c r="Q9">
-        <v>0.0078036473511442</v>
+        <v>0.007803633622035059</v>
       </c>
       <c r="R9">
-        <v>0.06400324295472321</v>
+        <v>0.06400322718411655</v>
       </c>
       <c r="S9">
-        <v>2.323404052629386E-08</v>
+        <v>2.323402255466777E-08</v>
       </c>
       <c r="T9">
-        <v>9.617357637937077E-06</v>
+        <v>9.617344334449345E-06</v>
       </c>
       <c r="U9">
-        <v>0.1875386199638751</v>
+        <v>0.1875383702393426</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.0007291586488256646</v>
+        <v>5.367418629040719E-05</v>
       </c>
       <c r="B10">
-        <v>0.220486736923645</v>
+        <v>0.01623027808886646</v>
       </c>
       <c r="C10">
-        <v>0.04733900563410881</v>
+        <v>0.00348467694471307</v>
       </c>
       <c r="D10">
-        <v>0.05964400737794335</v>
+        <v>0.004390461863868028</v>
       </c>
       <c r="E10">
-        <v>2.397228873522023</v>
+        <v>0.1764626991259116</v>
       </c>
       <c r="F10">
-        <v>0.05664833722555422</v>
+        <v>0.004169947658803828</v>
       </c>
       <c r="G10">
-        <v>0.0001929571633559509</v>
+        <v>1.420379209763036E-05</v>
       </c>
       <c r="H10">
-        <v>1.933850667271664E-05</v>
+        <v>1.42352910889234E-06</v>
       </c>
       <c r="I10">
-        <v>0.02035634755418248</v>
+        <v>0.001498455064252781</v>
       </c>
       <c r="J10">
-        <v>0.6175253591885685</v>
+        <v>0.04545673319041101</v>
       </c>
       <c r="K10">
-        <v>0.06161853542861806</v>
+        <v>0.004535809344844551</v>
       </c>
       <c r="L10">
-        <v>0.04507703983004747</v>
+        <v>0.00331817109108978</v>
       </c>
       <c r="M10">
-        <v>0.002520182046099129</v>
+        <v>0.0001855135897203752</v>
       </c>
       <c r="N10">
-        <v>2.380915476648296E-07</v>
+        <v>1.752618455374879E-08</v>
       </c>
       <c r="O10">
-        <v>0.0002512289090896411</v>
+        <v>1.849324451885956E-05</v>
       </c>
       <c r="P10">
-        <v>0.0004644306325910832</v>
+        <v>3.41872661694602E-05</v>
       </c>
       <c r="Q10">
-        <v>0.0004758866187006284</v>
+        <v>3.503055450666647E-05</v>
       </c>
       <c r="R10">
-        <v>0.00391804777104938</v>
+        <v>0.0002884118715595849</v>
       </c>
       <c r="S10">
-        <v>1.428821791074014E-09</v>
+        <v>1.051771769975295E-10</v>
       </c>
       <c r="T10">
-        <v>5.805925427709347E-07</v>
+        <v>4.273807657743415E-08</v>
       </c>
       <c r="U10">
-        <v>0.0111965323846751</v>
+        <v>0.0008241894402381627</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0005067526777827454</v>
+        <v>0.0005067526498733968</v>
       </c>
       <c r="B11">
-        <v>0.2090724919589163</v>
+        <v>0.2090724869524031</v>
       </c>
       <c r="C11">
-        <v>0.01296366970188913</v>
+        <v>0.01296366911384641</v>
       </c>
       <c r="D11">
-        <v>0.01690435050672046</v>
+        <v>0.0169043497437378</v>
       </c>
       <c r="E11">
-        <v>0.5827243381329386</v>
+        <v>0.5827242707995288</v>
       </c>
       <c r="F11">
-        <v>0.05504801370258766</v>
+        <v>0.05504801237760216</v>
       </c>
       <c r="G11">
-        <v>0.0001737504473719143</v>
+        <v>0.0001737504459450412</v>
       </c>
       <c r="H11">
-        <v>1.504736238557064E-05</v>
+        <v>1.504736226593565E-05</v>
       </c>
       <c r="I11">
-        <v>0.01732091910662985</v>
+        <v>0.01732091803007908</v>
       </c>
       <c r="J11">
-        <v>0.3091297076231931</v>
+        <v>0.3091297003489781</v>
       </c>
       <c r="K11">
-        <v>0.06332675851499173</v>
+        <v>0.06332675915729823</v>
       </c>
       <c r="L11">
-        <v>0.04609386040624069</v>
+        <v>0.04609385922637504</v>
       </c>
       <c r="M11">
-        <v>0.001418517377970756</v>
+        <v>0.001418517225864189</v>
       </c>
       <c r="N11">
-        <v>2.385586270002277E-07</v>
+        <v>2.385586257878981E-07</v>
       </c>
       <c r="O11">
-        <v>0.000172465040656996</v>
+        <v>0.0001724650266299797</v>
       </c>
       <c r="P11">
-        <v>0.0004212607274219039</v>
+        <v>0.000421260704071798</v>
       </c>
       <c r="Q11">
-        <v>0.0004307689605704355</v>
+        <v>0.0004307689366467304</v>
       </c>
       <c r="R11">
-        <v>0.003780097037263142</v>
+        <v>0.00378009703123981</v>
       </c>
       <c r="S11">
-        <v>1.29104363313872E-09</v>
+        <v>1.291043597431187E-09</v>
       </c>
       <c r="T11">
-        <v>4.398193805156115E-07</v>
+        <v>4.39819361790891E-07</v>
       </c>
       <c r="U11">
-        <v>0.01027810180058061</v>
+        <v>0.01027810144589906</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.0001192919972132786</v>
+        <v>0.0001192919653753079</v>
       </c>
       <c r="B12">
-        <v>0.03489336012921215</v>
+        <v>0.03489334917317206</v>
       </c>
       <c r="C12">
-        <v>0.001836190029867474</v>
+        <v>0.001836189824592488</v>
       </c>
       <c r="D12">
-        <v>0.002402179599428538</v>
+        <v>0.002402179299174434</v>
       </c>
       <c r="E12">
-        <v>0.1782433288528636</v>
+        <v>0.1782432833891236</v>
       </c>
       <c r="F12">
-        <v>0.009993760598217438</v>
+        <v>0.009993758589260562</v>
       </c>
       <c r="G12">
-        <v>1.081381905524489E-05</v>
+        <v>1.081381740252644E-05</v>
       </c>
       <c r="H12">
-        <v>1.174327182205755E-06</v>
+        <v>1.174326911212314E-06</v>
       </c>
       <c r="I12">
-        <v>0.001592592182103353</v>
+        <v>0.001592589787277892</v>
       </c>
       <c r="J12">
-        <v>0.04410852673809329</v>
+        <v>0.04410851953849972</v>
       </c>
       <c r="K12">
-        <v>0.002933591447421747</v>
+        <v>0.00293359128343562</v>
       </c>
       <c r="L12">
-        <v>0.0227387227162432</v>
+        <v>0.02273872262919504</v>
       </c>
       <c r="M12">
-        <v>0.0002055847449113195</v>
+        <v>0.000205584493447456</v>
       </c>
       <c r="N12">
-        <v>3.356011022646723E-08</v>
+        <v>3.356010704115455E-08</v>
       </c>
       <c r="O12">
-        <v>5.088115751641333E-05</v>
+        <v>5.088113945399308E-05</v>
       </c>
       <c r="P12">
-        <v>0.0001264466745479336</v>
+        <v>0.0001264466374392902</v>
       </c>
       <c r="Q12">
-        <v>0.0001309211069606494</v>
+        <v>0.0001309210685812298</v>
       </c>
       <c r="R12">
-        <v>0.0002357832868264134</v>
+        <v>0.0002357832532021375</v>
       </c>
       <c r="S12">
-        <v>3.52330011665995E-10</v>
+        <v>3.523299667099044E-10</v>
       </c>
       <c r="T12">
-        <v>8.038476756061378E-08</v>
+        <v>8.038473633438265E-08</v>
       </c>
       <c r="U12">
-        <v>0.00305292095714432</v>
+        <v>0.003052920294427216</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.000261835556662379</v>
+        <v>0.0002618354205127846</v>
       </c>
       <c r="B13">
-        <v>0.1899909411652607</v>
+        <v>0.1899908915746604</v>
       </c>
       <c r="C13">
-        <v>0.004747115424452213</v>
+        <v>0.004747113471053891</v>
       </c>
       <c r="D13">
-        <v>0.008434010150303338</v>
+        <v>0.00843400746175898</v>
       </c>
       <c r="E13">
-        <v>3.664689288666431</v>
+        <v>3.664689031589312</v>
       </c>
       <c r="F13">
-        <v>0.05987564717978548</v>
+        <v>0.05987563798961956</v>
       </c>
       <c r="G13">
-        <v>1.357917387474244E-05</v>
+        <v>1.357916326649924E-05</v>
       </c>
       <c r="H13">
-        <v>5.346281229275227E-06</v>
+        <v>5.34627998238163E-06</v>
       </c>
       <c r="I13">
-        <v>0.009841474974292568</v>
+        <v>0.009841461085655175</v>
       </c>
       <c r="J13">
-        <v>0.1495463914439268</v>
+        <v>0.1495463529518071</v>
       </c>
       <c r="K13">
-        <v>0.003088732835257107</v>
+        <v>0.00308873168226165</v>
       </c>
       <c r="L13">
-        <v>0.0072426632964416</v>
+        <v>0.007242662431978204</v>
       </c>
       <c r="M13">
-        <v>0.002141844676086403</v>
+        <v>0.002141843151618457</v>
       </c>
       <c r="N13">
-        <v>8.674538382686683E-08</v>
+        <v>8.674536963229437E-08</v>
       </c>
       <c r="O13">
-        <v>0.0001367145720623646</v>
+        <v>0.0001367144889354925</v>
       </c>
       <c r="P13">
-        <v>0.0003025580385196695</v>
+        <v>0.0003025578792075351</v>
       </c>
       <c r="Q13">
-        <v>0.0003422863341928159</v>
+        <v>0.0003422861698457997</v>
       </c>
       <c r="R13">
-        <v>0.0003092917100508125</v>
+        <v>0.000309291532729708</v>
       </c>
       <c r="S13">
-        <v>7.511048722788529E-10</v>
+        <v>7.511046639910905E-10</v>
       </c>
       <c r="T13">
-        <v>3.300480891704849E-07</v>
+        <v>3.300479354518281E-07</v>
       </c>
       <c r="U13">
-        <v>0.02586315107743834</v>
+        <v>0.02586314816167398</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>-0.0002893075440503068</v>
+        <v>-0.000289307425401632</v>
       </c>
       <c r="B14">
-        <v>-2.212358624255585</v>
+        <v>-2.212358571505542</v>
       </c>
       <c r="C14">
-        <v>-0.1786541429572581</v>
+        <v>-0.1786541405069669</v>
       </c>
       <c r="D14">
-        <v>-0.2451376832297305</v>
+        <v>-0.2451376798310382</v>
       </c>
       <c r="E14">
-        <v>-4.877639933887973</v>
+        <v>-4.877639669091061</v>
       </c>
       <c r="F14">
-        <v>-0.01684463780731901</v>
+        <v>-0.01684462916819053</v>
       </c>
       <c r="G14">
-        <v>-3.965015817502291E-05</v>
+        <v>-3.965014527316289E-05</v>
       </c>
       <c r="H14">
-        <v>-1.140632551824879E-05</v>
+        <v>-1.140632375818431E-05</v>
       </c>
       <c r="I14">
-        <v>-0.03017178301018552</v>
+        <v>-0.03017176559670176</v>
       </c>
       <c r="J14">
-        <v>-2.690032047614547</v>
+        <v>-2.690031985693188</v>
       </c>
       <c r="K14">
-        <v>-0.002513701575316879</v>
+        <v>-0.002513696921671623</v>
       </c>
       <c r="L14">
-        <v>-0.0009888853033944425</v>
+        <v>-0.0009888861495512191</v>
       </c>
       <c r="M14">
-        <v>-0.002591396815575858</v>
+        <v>-0.002591394889626143</v>
       </c>
       <c r="N14">
-        <v>-3.398431104496329E-07</v>
+        <v>-3.39843093613671E-07</v>
       </c>
       <c r="O14">
-        <v>-0.0001116629748936298</v>
+        <v>-0.000111662901534068</v>
       </c>
       <c r="P14">
-        <v>-0.0005074251791280528</v>
+        <v>-0.0005074250298874228</v>
       </c>
       <c r="Q14">
-        <v>-0.00051650605302195</v>
+        <v>-0.0005165058980290322</v>
       </c>
       <c r="R14">
-        <v>-0.001790794149842345</v>
+        <v>-0.001790793880912825</v>
       </c>
       <c r="S14">
-        <v>-6.563365754035871E-09</v>
+        <v>-6.563365554963346E-09</v>
       </c>
       <c r="T14">
-        <v>-2.841731893692455E-06</v>
+        <v>-2.841731725910762E-06</v>
       </c>
       <c r="U14">
-        <v>-0.006582223469288118</v>
+        <v>-0.00658222038999241</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.000261835556662379</v>
+        <v>0.0002618354205127846</v>
       </c>
       <c r="B15">
-        <v>0.1899909411652607</v>
+        <v>0.1899908915746604</v>
       </c>
       <c r="C15">
-        <v>0.004747115424452213</v>
+        <v>0.004747113471053891</v>
       </c>
       <c r="D15">
-        <v>0.008434010150303338</v>
+        <v>0.00843400746175898</v>
       </c>
       <c r="E15">
-        <v>3.664689288666431</v>
+        <v>3.664689031589312</v>
       </c>
       <c r="F15">
-        <v>0.05987564717978548</v>
+        <v>0.05987563798961956</v>
       </c>
       <c r="G15">
-        <v>1.357917387474244E-05</v>
+        <v>1.357916326649924E-05</v>
       </c>
       <c r="H15">
-        <v>5.346281229275227E-06</v>
+        <v>5.34627998238163E-06</v>
       </c>
       <c r="I15">
-        <v>0.009841474974292568</v>
+        <v>0.009841461085655175</v>
       </c>
       <c r="J15">
-        <v>0.1495463914439268</v>
+        <v>0.1495463529518071</v>
       </c>
       <c r="K15">
-        <v>0.003088732835257107</v>
+        <v>0.00308873168226165</v>
       </c>
       <c r="L15">
-        <v>0.0072426632964416</v>
+        <v>0.007242662431978204</v>
       </c>
       <c r="M15">
-        <v>0.002141844676086403</v>
+        <v>0.002141843151618457</v>
       </c>
       <c r="N15">
-        <v>8.674538382686683E-08</v>
+        <v>8.674536963229437E-08</v>
       </c>
       <c r="O15">
-        <v>0.0001367145720623646</v>
+        <v>0.0001367144889354925</v>
       </c>
       <c r="P15">
-        <v>0.0003025580385196695</v>
+        <v>0.0003025578792075351</v>
       </c>
       <c r="Q15">
-        <v>0.0003422863341928159</v>
+        <v>0.0003422861698457997</v>
       </c>
       <c r="R15">
-        <v>0.0003092917100508125</v>
+        <v>0.000309291532729708</v>
       </c>
       <c r="S15">
-        <v>7.511048722788529E-10</v>
+        <v>7.511046639910905E-10</v>
       </c>
       <c r="T15">
-        <v>3.300480891704849E-07</v>
+        <v>3.300479354518281E-07</v>
       </c>
       <c r="U15">
-        <v>0.02586315107743834</v>
+        <v>0.02586314816167398</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>-0.0007026142379358375</v>
+        <v>-0.0007026134921517759</v>
       </c>
       <c r="B16">
-        <v>-2.881816294347467</v>
+        <v>-2.881815962875566</v>
       </c>
       <c r="C16">
-        <v>-0.1282782406048817</v>
+        <v>-0.1282782265084956</v>
       </c>
       <c r="D16">
-        <v>-0.1847671445356489</v>
+        <v>-0.1847671248768747</v>
       </c>
       <c r="E16">
-        <v>-7.120623071495755</v>
+        <v>-7.120621497358712</v>
       </c>
       <c r="F16">
-        <v>-0.07040440917731539</v>
+        <v>-0.07040435442381662</v>
       </c>
       <c r="G16">
-        <v>-0.0001804001857298485</v>
+        <v>-0.000180400106672379</v>
       </c>
       <c r="H16">
-        <v>-1.809002293540828E-05</v>
+        <v>-1.809001213219584E-05</v>
       </c>
       <c r="I16">
-        <v>-0.07859583294918822</v>
+        <v>-0.07859572467719271</v>
       </c>
       <c r="J16">
-        <v>-1.675953362906209</v>
+        <v>-1.675953001626201</v>
       </c>
       <c r="K16">
-        <v>-0.0101629815000128</v>
+        <v>-0.01016295399997031</v>
       </c>
       <c r="L16">
-        <v>-0.002969969127491377</v>
+        <v>-0.002969959859499055</v>
       </c>
       <c r="M16">
-        <v>-0.009783663742471865</v>
+        <v>-0.009783651826595213</v>
       </c>
       <c r="N16">
-        <v>-3.3597727750984E-07</v>
+        <v>-3.359771726087305E-07</v>
       </c>
       <c r="O16">
-        <v>-0.0003017866199005252</v>
+        <v>-0.0003017861544938765</v>
       </c>
       <c r="P16">
-        <v>-0.000826260679660095</v>
+        <v>-0.000826259732819869</v>
       </c>
       <c r="Q16">
-        <v>-0.0008592164460039044</v>
+        <v>-0.0008592154634428999</v>
       </c>
       <c r="R16">
-        <v>-0.003315922044445461</v>
+        <v>-0.003315920395876282</v>
       </c>
       <c r="S16">
-        <v>-8.666142333926707E-09</v>
+        <v>-8.66614095581721E-09</v>
       </c>
       <c r="T16">
-        <v>-3.515570294878382E-06</v>
+        <v>-3.515569248045878E-06</v>
       </c>
       <c r="U16">
-        <v>-0.02848157090390321</v>
+        <v>-0.0284815516027898</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>2.864623933584955E-05</v>
+        <v>2.864624676757213E-05</v>
       </c>
       <c r="B17">
-        <v>0.003759307606453252</v>
+        <v>0.003759310616118079</v>
       </c>
       <c r="C17">
-        <v>0.001987618981255812</v>
+        <v>0.001987619106668385</v>
       </c>
       <c r="D17">
-        <v>0.002554561457133904</v>
+        <v>0.002554561630306291</v>
       </c>
       <c r="E17">
-        <v>0.1695761188805174</v>
+        <v>0.1695761339228903</v>
       </c>
       <c r="F17">
-        <v>0.0009397839002104638</v>
+        <v>0.0009397844376320585</v>
       </c>
       <c r="G17">
-        <v>3.370918169619641E-06</v>
+        <v>3.370918847431765E-06</v>
       </c>
       <c r="H17">
-        <v>4.08211604974565E-07</v>
+        <v>4.082116917917249E-07</v>
       </c>
       <c r="I17">
-        <v>0.001381289391926036</v>
+        <v>0.001381290280301309</v>
       </c>
       <c r="J17">
-        <v>0.02960114654283681</v>
+        <v>0.02960114935484684</v>
       </c>
       <c r="K17">
-        <v>0.0003015980549637339</v>
+        <v>0.0003015982164559185</v>
       </c>
       <c r="L17">
-        <v>0.0001433027813556232</v>
+        <v>0.0001433028446780219</v>
       </c>
       <c r="M17">
-        <v>0.0002143243318480738</v>
+        <v>0.0002143244291935652</v>
       </c>
       <c r="N17">
-        <v>1.291931223329661E-09</v>
+        <v>1.291932126626929E-09</v>
       </c>
       <c r="O17">
-        <v>1.160487439708728E-05</v>
+        <v>1.160487895252307E-05</v>
       </c>
       <c r="P17">
-        <v>1.043167768544E-05</v>
+        <v>1.04316866753419E-05</v>
       </c>
       <c r="Q17">
-        <v>1.093468444622229E-05</v>
+        <v>1.093469377639209E-05</v>
       </c>
       <c r="R17">
-        <v>3.07178663693755E-05</v>
+        <v>3.071787921251114E-05</v>
       </c>
       <c r="S17">
-        <v>2.512250888285201E-11</v>
+        <v>2.512252138302114E-11</v>
       </c>
       <c r="T17">
-        <v>2.219408289915556E-08</v>
+        <v>2.219409218493913E-08</v>
       </c>
       <c r="U17">
-        <v>0.0002888117049419288</v>
+        <v>0.0002888118863436565</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.00084084276183095</v>
+        <v>0.0008408428056643555</v>
       </c>
       <c r="B18">
-        <v>0.0136820705535975</v>
+        <v>0.0136820872689545</v>
       </c>
       <c r="C18">
-        <v>0.005546869134215453</v>
+        <v>0.005546869708277963</v>
       </c>
       <c r="D18">
-        <v>0.007733462924635765</v>
+        <v>0.007733463723555582</v>
       </c>
       <c r="E18">
-        <v>1.738454969055728</v>
+        <v>1.738455048137301</v>
       </c>
       <c r="F18">
-        <v>0.003682780453265647</v>
+        <v>0.003682783494212889</v>
       </c>
       <c r="G18">
-        <v>9.910056038942673E-06</v>
+        <v>9.910059508425797E-06</v>
       </c>
       <c r="H18">
-        <v>1.873305938286255E-06</v>
+        <v>1.873306360182224E-06</v>
       </c>
       <c r="I18">
-        <v>0.009664755482158642</v>
+        <v>0.009664760143302954</v>
       </c>
       <c r="J18">
-        <v>0.09978981275500223</v>
+        <v>0.0997898248623954</v>
       </c>
       <c r="K18">
-        <v>0.001680640949197734</v>
+        <v>0.001680641432737954</v>
       </c>
       <c r="L18">
-        <v>0.0004378711418336617</v>
+        <v>0.0004378714683557206</v>
       </c>
       <c r="M18">
-        <v>0.003236543233539487</v>
+        <v>0.003236543736317988</v>
       </c>
       <c r="N18">
-        <v>8.593856640741937E-09</v>
+        <v>8.593861514866286E-09</v>
       </c>
       <c r="O18">
-        <v>0.0002662045985942416</v>
+        <v>0.0002662046258117855</v>
       </c>
       <c r="P18">
-        <v>5.367527430531504E-05</v>
+        <v>5.367532713161839E-05</v>
       </c>
       <c r="Q18">
-        <v>5.567946095046117E-05</v>
+        <v>5.56795154429814E-05</v>
       </c>
       <c r="R18">
-        <v>0.0009870058256388067</v>
+        <v>0.0009870058867911735</v>
       </c>
       <c r="S18">
-        <v>2.587945126297933E-10</v>
+        <v>2.587945823685667E-10</v>
       </c>
       <c r="T18">
-        <v>2.369067618341617E-07</v>
+        <v>2.369068128821588E-07</v>
       </c>
       <c r="U18">
-        <v>0.001699746065083112</v>
+        <v>0.001699747037578638</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.001960372353464823</v>
+        <v>-0.001960373114530896</v>
       </c>
       <c r="B19">
-        <v>-0.4456404448339529</v>
+        <v>-0.4456407525565189</v>
       </c>
       <c r="C19">
-        <v>-0.04537182804251785</v>
+        <v>-0.04537183763642504</v>
       </c>
       <c r="D19">
-        <v>-0.06015808146686788</v>
+        <v>-0.06015809489325295</v>
       </c>
       <c r="E19">
-        <v>-1.51212939735203</v>
+        <v>-1.512130813667589</v>
       </c>
       <c r="F19">
-        <v>-0.1105926323479166</v>
+        <v>-0.1105926868662346</v>
       </c>
       <c r="G19">
-        <v>-0.0003596275494763805</v>
+        <v>-0.0003596276139243556</v>
       </c>
       <c r="H19">
-        <v>-0.002855970011351829</v>
+        <v>-0.002855970019143905</v>
       </c>
       <c r="I19">
-        <v>-0.02563737329983522</v>
+        <v>-0.02563745989021084</v>
       </c>
       <c r="J19">
-        <v>-1.171873350917443</v>
+        <v>-1.171873559644938</v>
       </c>
       <c r="K19">
-        <v>-0.0433762620377088</v>
+        <v>-0.04337627044123043</v>
       </c>
       <c r="L19">
-        <v>-0.01734706339598086</v>
+        <v>-0.01734705927849379</v>
       </c>
       <c r="M19">
-        <v>-0.004300229892612547</v>
+        <v>-0.004300238903523151</v>
       </c>
       <c r="N19">
-        <v>-5.116582513996836E-07</v>
+        <v>-5.116583366631087E-07</v>
       </c>
       <c r="O19">
-        <v>-0.001009444991762207</v>
+        <v>-0.00100944547005935</v>
       </c>
       <c r="P19">
-        <v>-0.001151205777847287</v>
+        <v>-0.00115120662580118</v>
       </c>
       <c r="Q19">
-        <v>-0.001187084092554393</v>
+        <v>-0.001187084969073484</v>
       </c>
       <c r="R19">
-        <v>-0.003746186675999995</v>
+        <v>-0.003746187827225871</v>
       </c>
       <c r="S19">
-        <v>-2.271545090710216E-09</v>
+        <v>-2.271546257739649E-09</v>
       </c>
       <c r="T19">
-        <v>-1.410274233675496E-06</v>
+        <v>-1.410275158428661E-06</v>
       </c>
       <c r="U19">
-        <v>-0.02499607083331289</v>
+        <v>-0.02499608766702852</v>
       </c>
     </row>
   </sheetData>

--- a/results/diathermy_APOS/data_uniquie_diathermy_APOS_recipe.xlsx
+++ b/results/diathermy_APOS/data_uniquie_diathermy_APOS_recipe.xlsx
@@ -507,1172 +507,1172 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.009065535944352641</v>
+        <v>0.009065538732794403</v>
       </c>
       <c r="B2">
-        <v>2.639955920086755</v>
+        <v>2.63995703857636</v>
       </c>
       <c r="C2">
-        <v>0.5500091614318895</v>
+        <v>0.5500091858817662</v>
       </c>
       <c r="D2">
-        <v>0.6940489382729578</v>
+        <v>0.6940489736844719</v>
       </c>
       <c r="E2">
-        <v>28.1684214724032</v>
+        <v>28.16842561565492</v>
       </c>
       <c r="F2">
-        <v>0.6763876762679819</v>
+        <v>0.6763878825373002</v>
       </c>
       <c r="G2">
-        <v>0.002606655647951525</v>
+        <v>0.002606655859233922</v>
       </c>
       <c r="H2">
-        <v>0.001546858986236568</v>
+        <v>0.001546859012956845</v>
       </c>
       <c r="I2">
-        <v>0.2526978387635115</v>
+        <v>0.2526981449421831</v>
       </c>
       <c r="J2">
-        <v>7.862763222345888</v>
+        <v>7.86276378812824</v>
       </c>
       <c r="K2">
-        <v>0.7180506203225899</v>
+        <v>0.7180506459331193</v>
       </c>
       <c r="L2">
-        <v>0.5155782998016919</v>
+        <v>0.5155783180169924</v>
       </c>
       <c r="M2">
-        <v>0.03982228169341689</v>
+        <v>0.03982231383573536</v>
       </c>
       <c r="N2">
-        <v>3.134561240607412E-06</v>
+        <v>3.134561559908287E-06</v>
       </c>
       <c r="O2">
-        <v>0.003151962742679014</v>
+        <v>0.003151964536660113</v>
       </c>
       <c r="P2">
-        <v>0.005630121477656703</v>
+        <v>0.005630125041973252</v>
       </c>
       <c r="Q2">
-        <v>0.005772677024375735</v>
+        <v>0.005772680705624268</v>
       </c>
       <c r="R2">
-        <v>0.04896439379054224</v>
+        <v>0.04896439761715514</v>
       </c>
       <c r="S2">
-        <v>1.715536390583731E-08</v>
+        <v>1.715536847528859E-08</v>
       </c>
       <c r="T2">
-        <v>7.183402293819326E-06</v>
+        <v>7.183405617223497E-06</v>
       </c>
       <c r="U2">
-        <v>0.139060971290827</v>
+        <v>0.1390610369152144</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>5.19961523815137E-05</v>
+        <v>0.0006790255980825867</v>
       </c>
       <c r="B3">
-        <v>0.001450806289674415</v>
+        <v>0.1868930438564557</v>
       </c>
       <c r="C3">
-        <v>0.0046303034972598</v>
+        <v>0.04340145916509974</v>
       </c>
       <c r="D3">
-        <v>0.005918208052813697</v>
+        <v>0.05482771724557964</v>
       </c>
       <c r="E3">
-        <v>0.4076955970297555</v>
+        <v>2.385780630941116</v>
       </c>
       <c r="F3">
-        <v>0.0004278271656823375</v>
+        <v>0.04809294614179524</v>
       </c>
       <c r="G3">
-        <v>5.772637040790681E-06</v>
+        <v>0.0001850880361018608</v>
       </c>
       <c r="H3">
-        <v>1.341881214302864E-07</v>
+        <v>9.08053871062368E-05</v>
       </c>
       <c r="I3">
-        <v>0.0006294085195752994</v>
+        <v>0.01824722735212062</v>
       </c>
       <c r="J3">
-        <v>0.06706750247244364</v>
+        <v>0.6120184758655254</v>
       </c>
       <c r="K3">
-        <v>0.0001247230183958613</v>
+        <v>0.05122492463278971</v>
       </c>
       <c r="L3">
-        <v>0.0001520081358057082</v>
+        <v>0.0366207229793067</v>
       </c>
       <c r="M3">
-        <v>0.0002293780034227816</v>
+        <v>0.002776945375166775</v>
       </c>
       <c r="N3">
-        <v>1.205004840907632E-09</v>
+        <v>2.174330823148595E-07</v>
       </c>
       <c r="O3">
-        <v>1.710010382586118E-05</v>
+        <v>0.0002349763517728055</v>
       </c>
       <c r="P3">
-        <v>9.556816894715163E-06</v>
+        <v>0.0004038195886713711</v>
       </c>
       <c r="Q3">
-        <v>9.816901709367727E-06</v>
+        <v>0.0004140331097827637</v>
       </c>
       <c r="R3">
-        <v>2.97989183900673E-05</v>
+        <v>0.003390022394001183</v>
       </c>
       <c r="S3">
-        <v>3.005014040738728E-11</v>
+        <v>1.232651896846077E-09</v>
       </c>
       <c r="T3">
-        <v>2.954041259329401E-08</v>
+        <v>5.296218622617152E-07</v>
       </c>
       <c r="U3">
-        <v>0.00017045476428875</v>
+        <v>0.009893842807900845</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.009062374540539308</v>
+        <v>0.009062375989298552</v>
       </c>
       <c r="B4">
-        <v>3.205256411292076</v>
+        <v>3.205256947461821</v>
       </c>
       <c r="C4">
-        <v>0.08392864240572968</v>
+        <v>0.0839286616769965</v>
       </c>
       <c r="D4">
-        <v>0.1123831829021016</v>
+        <v>0.1123832094919662</v>
       </c>
       <c r="E4">
-        <v>7.421889303968148</v>
+        <v>7.421891827287264</v>
       </c>
       <c r="F4">
-        <v>1.89858652785242</v>
+        <v>1.898586627264971</v>
       </c>
       <c r="G4">
-        <v>0.0008007065455149369</v>
+        <v>0.0008007066557299719</v>
       </c>
       <c r="H4">
-        <v>0.0001144681523293308</v>
+        <v>0.0001144681652153214</v>
       </c>
       <c r="I4">
-        <v>0.1324824525600043</v>
+        <v>0.1324826087338694</v>
       </c>
       <c r="J4">
-        <v>1.984332467959016</v>
+        <v>1.984332839114851</v>
       </c>
       <c r="K4">
-        <v>0.2024672163388549</v>
+        <v>0.2024672283231199</v>
       </c>
       <c r="L4">
-        <v>0.09313486693476761</v>
+        <v>0.09313487426091333</v>
       </c>
       <c r="M4">
-        <v>0.0210210578706998</v>
+        <v>0.0210210750477142</v>
       </c>
       <c r="N4">
-        <v>5.930314000462118E-07</v>
+        <v>5.930315535052947E-07</v>
       </c>
       <c r="O4">
-        <v>0.004042494474900176</v>
+        <v>0.004042495384283988</v>
       </c>
       <c r="P4">
-        <v>0.007820234793751952</v>
+        <v>0.007820236565395733</v>
       </c>
       <c r="Q4">
-        <v>0.008528613604306481</v>
+        <v>0.008528615429290837</v>
       </c>
       <c r="R4">
-        <v>0.04824888828839305</v>
+        <v>0.04824889016755277</v>
       </c>
       <c r="S4">
-        <v>1.351638209805688E-08</v>
+        <v>1.351638432592965E-08</v>
       </c>
       <c r="T4">
-        <v>6.52298545224876E-06</v>
+        <v>6.522987130577749E-06</v>
       </c>
       <c r="U4">
-        <v>0.7124084572559168</v>
+        <v>0.7124084889254048</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>2.079559323698257E-05</v>
+        <v>2.07955931136884E-05</v>
       </c>
       <c r="B5">
-        <v>0.0009947397262402805</v>
+        <v>0.0009947396776491407</v>
       </c>
       <c r="C5">
-        <v>0.0009575823811794244</v>
+        <v>0.0009575823792391622</v>
       </c>
       <c r="D5">
-        <v>0.001492127986780571</v>
+        <v>0.001492127984104271</v>
       </c>
       <c r="E5">
-        <v>0.04272095827121464</v>
+        <v>0.04272095800778006</v>
       </c>
       <c r="F5">
-        <v>0.0002629456371974777</v>
+        <v>0.0002629456285599616</v>
       </c>
       <c r="G5">
-        <v>1.478708877658427E-06</v>
+        <v>1.478708867205511E-06</v>
       </c>
       <c r="H5">
-        <v>8.908300315998368E-08</v>
+        <v>8.90830018498157E-08</v>
       </c>
       <c r="I5">
-        <v>0.0002723185514149859</v>
+        <v>0.0002723185404885948</v>
       </c>
       <c r="J5">
-        <v>0.01792910696880943</v>
+        <v>0.01792910692986555</v>
       </c>
       <c r="K5">
-        <v>7.749260853821474E-05</v>
+        <v>7.749260701501706E-05</v>
       </c>
       <c r="L5">
-        <v>5.159391639459118E-05</v>
+        <v>5.159391653963269E-05</v>
       </c>
       <c r="M5">
-        <v>0.0001535267402870331</v>
+        <v>0.0001535267391641967</v>
       </c>
       <c r="N5">
-        <v>2.637568160563013E-09</v>
+        <v>2.637568145620593E-09</v>
       </c>
       <c r="O5">
-        <v>6.990253060411614E-06</v>
+        <v>6.990252991487149E-06</v>
       </c>
       <c r="P5">
-        <v>5.360473984623682E-06</v>
+        <v>5.36047385333841E-06</v>
       </c>
       <c r="Q5">
-        <v>5.499652534764677E-06</v>
+        <v>5.499652399310605E-06</v>
       </c>
       <c r="R5">
-        <v>2.571622951070465E-05</v>
+        <v>2.571622935698658E-05</v>
       </c>
       <c r="S5">
-        <v>1.065958065083031E-11</v>
+        <v>1.065958046079669E-11</v>
       </c>
       <c r="T5">
-        <v>1.037001831807115E-08</v>
+        <v>1.037001818401551E-08</v>
       </c>
       <c r="U5">
-        <v>0.0001119366470216642</v>
+        <v>0.0001119366443234313</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.01466648705529383</v>
+        <v>0.01466648738823048</v>
       </c>
       <c r="B6">
-        <v>0.8181331436122864</v>
+        <v>0.8181332666802595</v>
       </c>
       <c r="C6">
-        <v>1.345147230373903</v>
+        <v>1.345147234492164</v>
       </c>
       <c r="D6">
-        <v>1.726873700050483</v>
+        <v>1.726873705804704</v>
       </c>
       <c r="E6">
-        <v>102.7921917139166</v>
+        <v>102.7921922595458</v>
       </c>
       <c r="F6">
-        <v>0.2206027726697578</v>
+        <v>0.220602795742133</v>
       </c>
       <c r="G6">
-        <v>0.001923555541661509</v>
+        <v>0.00192355556634322</v>
       </c>
       <c r="H6">
-        <v>5.939690491862433E-05</v>
+        <v>5.939690782646985E-05</v>
       </c>
       <c r="I6">
-        <v>0.1693128445059389</v>
+        <v>0.1693128820529239</v>
       </c>
       <c r="J6">
-        <v>19.78708879347137</v>
+        <v>19.78708887284949</v>
       </c>
       <c r="K6">
-        <v>0.08032177073624715</v>
+        <v>0.08032177320044</v>
       </c>
       <c r="L6">
-        <v>0.05565813844756901</v>
+        <v>0.05565814257795624</v>
       </c>
       <c r="M6">
-        <v>0.06716577248820038</v>
+        <v>0.06716577666793276</v>
       </c>
       <c r="N6">
-        <v>4.961653439456701E-07</v>
+        <v>4.961653789735835E-07</v>
       </c>
       <c r="O6">
-        <v>0.005208655564988682</v>
+        <v>0.005208655777516903</v>
       </c>
       <c r="P6">
-        <v>0.003672453320046114</v>
+        <v>0.003672453740633309</v>
       </c>
       <c r="Q6">
-        <v>0.003766581149402516</v>
+        <v>0.003766581582606185</v>
       </c>
       <c r="R6">
-        <v>0.0107498088443034</v>
+        <v>0.01074980927919762</v>
       </c>
       <c r="S6">
-        <v>9.954979256088598E-09</v>
+        <v>9.954979790063505E-09</v>
       </c>
       <c r="T6">
-        <v>9.132213614692961E-06</v>
+        <v>9.132214006646636E-06</v>
       </c>
       <c r="U6">
-        <v>0.06774779236952091</v>
+        <v>0.06774779976210836</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.002301881333123847</v>
+        <v>0.002301881249447985</v>
       </c>
       <c r="B7">
-        <v>0.1652474226687684</v>
+        <v>0.1652473918471166</v>
       </c>
       <c r="C7">
-        <v>0.01684144280664396</v>
+        <v>0.0168414416015083</v>
       </c>
       <c r="D7">
-        <v>0.02314080696506172</v>
+        <v>0.02314080530724713</v>
       </c>
       <c r="E7">
-        <v>4.338663447419151</v>
+        <v>4.338663286262728</v>
       </c>
       <c r="F7">
-        <v>0.06836056939112202</v>
+        <v>0.06836056371230914</v>
       </c>
       <c r="G7">
-        <v>4.928301117902927E-05</v>
+        <v>4.928300447829838E-05</v>
       </c>
       <c r="H7">
-        <v>9.421561815214249E-06</v>
+        <v>9.421561016445775E-06</v>
       </c>
       <c r="I7">
-        <v>0.02807748845272116</v>
+        <v>0.02807747984354063</v>
       </c>
       <c r="J7">
-        <v>0.3179891603838169</v>
+        <v>0.3179891361007407</v>
       </c>
       <c r="K7">
-        <v>0.009525747157865734</v>
+        <v>0.009525746359883439</v>
       </c>
       <c r="L7">
-        <v>0.003024483989459184</v>
+        <v>0.003024483371328457</v>
       </c>
       <c r="M7">
-        <v>0.00894178900412859</v>
+        <v>0.008941788064693708</v>
       </c>
       <c r="N7">
-        <v>8.265724405898946E-08</v>
+        <v>8.265723516489848E-08</v>
       </c>
       <c r="O7">
-        <v>0.0007740389043747258</v>
+        <v>0.000774038853476133</v>
       </c>
       <c r="P7">
-        <v>0.0004064416509949369</v>
+        <v>0.0004064415548306966</v>
       </c>
       <c r="Q7">
-        <v>0.0004353570383947512</v>
+        <v>0.0004353569389685328</v>
       </c>
       <c r="R7">
-        <v>0.004321421160318577</v>
+        <v>0.004321421045892042</v>
       </c>
       <c r="S7">
-        <v>1.130508858241843E-09</v>
+        <v>1.130508728539158E-09</v>
       </c>
       <c r="T7">
-        <v>8.151529015493723E-07</v>
+        <v>8.151528064784647E-07</v>
       </c>
       <c r="U7">
-        <v>0.02624265389380857</v>
+        <v>0.02624265209519801</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.007223571461937163</v>
+        <v>0.007223573531382864</v>
       </c>
       <c r="B8">
-        <v>2.42807420627791</v>
+        <v>2.428074996350033</v>
       </c>
       <c r="C8">
-        <v>0.07016808918399031</v>
+        <v>0.07016811316666652</v>
       </c>
       <c r="D8">
-        <v>0.09344663654495131</v>
+        <v>0.09344667024165182</v>
       </c>
       <c r="E8">
-        <v>6.606748918499515</v>
+        <v>6.606752379870068</v>
       </c>
       <c r="F8">
-        <v>1.333466724888244</v>
+        <v>1.333466869594657</v>
       </c>
       <c r="G8">
-        <v>0.0006782902020695679</v>
+        <v>0.0006782903599043062</v>
       </c>
       <c r="H8">
-        <v>0.0001927160277220376</v>
+        <v>0.0001927160467875627</v>
       </c>
       <c r="I8">
-        <v>0.1056185109288</v>
+        <v>0.1056187337337398</v>
       </c>
       <c r="J8">
-        <v>1.852968123002723</v>
+        <v>1.85296862518114</v>
       </c>
       <c r="K8">
-        <v>0.1758859575059693</v>
+        <v>0.1758859756915621</v>
       </c>
       <c r="L8">
-        <v>0.4951721689966245</v>
+        <v>0.4951721798794562</v>
       </c>
       <c r="M8">
-        <v>0.1917812586655231</v>
+        <v>0.1917812827619087</v>
       </c>
       <c r="N8">
-        <v>7.518124662324689E-07</v>
+        <v>7.518126920321516E-07</v>
       </c>
       <c r="O8">
-        <v>0.003281925932218396</v>
+        <v>0.003281927234256295</v>
       </c>
       <c r="P8">
-        <v>0.006287095211433546</v>
+        <v>0.006287097751437342</v>
       </c>
       <c r="Q8">
-        <v>0.00679869826968077</v>
+        <v>0.006798700886973576</v>
       </c>
       <c r="R8">
-        <v>0.04489654841960181</v>
+        <v>0.04489655120810681</v>
       </c>
       <c r="S8">
-        <v>1.418889308448968E-08</v>
+        <v>1.41888963353771E-08</v>
       </c>
       <c r="T8">
-        <v>5.195972138121005E-06</v>
+        <v>5.19597455281489E-06</v>
       </c>
       <c r="U8">
-        <v>0.5372963020050525</v>
+        <v>0.537296347960048</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.01200667439681416</v>
+        <v>0.01200668561295772</v>
       </c>
       <c r="B9">
-        <v>3.587519122253347</v>
+        <v>3.587523137000294</v>
       </c>
       <c r="C9">
-        <v>0.7517797375955338</v>
+        <v>0.7517799233014228</v>
       </c>
       <c r="D9">
-        <v>0.948171615748396</v>
+        <v>0.9481718682354177</v>
       </c>
       <c r="E9">
-        <v>38.26009728775919</v>
+        <v>38.26012037676935</v>
       </c>
       <c r="F9">
-        <v>0.9240493913357954</v>
+        <v>0.9240501356230735</v>
       </c>
       <c r="G9">
-        <v>0.003421064446430713</v>
+        <v>0.00342106532682648</v>
       </c>
       <c r="H9">
-        <v>0.00152649246901354</v>
+        <v>0.001526492568665057</v>
       </c>
       <c r="I9">
-        <v>0.3391484851964869</v>
+        <v>0.3391496353912808</v>
       </c>
       <c r="J9">
-        <v>10.44930429486173</v>
+        <v>10.44930773060409</v>
       </c>
       <c r="K9">
-        <v>0.9969391077717443</v>
+        <v>0.9969392068399219</v>
       </c>
       <c r="L9">
-        <v>0.7087069343314228</v>
+        <v>0.7087070297211672</v>
       </c>
       <c r="M9">
-        <v>0.04612441906574286</v>
+        <v>0.04612454404509302</v>
       </c>
       <c r="N9">
-        <v>4.1330203734287E-06</v>
+        <v>4.13302152461307E-06</v>
       </c>
       <c r="O9">
-        <v>0.004170286896081227</v>
+        <v>0.004170293702450686</v>
       </c>
       <c r="P9">
-        <v>0.007611840217126625</v>
+        <v>0.007611853161595863</v>
       </c>
       <c r="Q9">
-        <v>0.007803633622035059</v>
+        <v>0.007803646981701633</v>
       </c>
       <c r="R9">
-        <v>0.06400322718411655</v>
+        <v>0.06400324200085979</v>
       </c>
       <c r="S9">
-        <v>2.323402255466777E-08</v>
+        <v>2.323403975398627E-08</v>
       </c>
       <c r="T9">
-        <v>9.617344334449345E-06</v>
+        <v>9.617356986885795E-06</v>
       </c>
       <c r="U9">
-        <v>0.1875383702393426</v>
+        <v>0.1875386079507589</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>5.367418629040719E-05</v>
+        <v>5.367420116727086E-05</v>
       </c>
       <c r="B10">
-        <v>0.01623027808886646</v>
+        <v>0.01623028403718666</v>
       </c>
       <c r="C10">
-        <v>0.00348467694471307</v>
+        <v>0.003484677074673155</v>
       </c>
       <c r="D10">
-        <v>0.004390461863868028</v>
+        <v>0.004390462052127658</v>
       </c>
       <c r="E10">
-        <v>0.1764626991259116</v>
+        <v>0.1764627215597552</v>
       </c>
       <c r="F10">
-        <v>0.004169947658803828</v>
+        <v>0.004169948756323934</v>
       </c>
       <c r="G10">
-        <v>1.420379209763036E-05</v>
+        <v>1.420379322003694E-05</v>
       </c>
       <c r="H10">
-        <v>1.42352910889234E-06</v>
+        <v>1.423529251065071E-06</v>
       </c>
       <c r="I10">
-        <v>0.001498455064252781</v>
+        <v>0.001498456681195387</v>
       </c>
       <c r="J10">
-        <v>0.04545673319041101</v>
+        <v>0.04545673620653046</v>
       </c>
       <c r="K10">
-        <v>0.004535809344844551</v>
+        <v>0.004535809479879063</v>
       </c>
       <c r="L10">
-        <v>0.00331817109108978</v>
+        <v>0.003318171132623269</v>
       </c>
       <c r="M10">
-        <v>0.0001855135897203752</v>
+        <v>0.0001855137585419194</v>
       </c>
       <c r="N10">
-        <v>1.752618455374879E-08</v>
+        <v>1.752618626336903E-08</v>
       </c>
       <c r="O10">
-        <v>1.849324451885956E-05</v>
+        <v>1.84932541115543E-05</v>
       </c>
       <c r="P10">
-        <v>3.41872661694602E-05</v>
+        <v>3.418728529442293E-05</v>
       </c>
       <c r="Q10">
-        <v>3.503055450666647E-05</v>
+        <v>3.503057425212918E-05</v>
       </c>
       <c r="R10">
-        <v>0.0002884118715595849</v>
+        <v>0.0002884118918026297</v>
       </c>
       <c r="S10">
-        <v>1.051771769975295E-10</v>
+        <v>1.051772008427568E-10</v>
       </c>
       <c r="T10">
-        <v>4.273807657743415E-08</v>
+        <v>4.273809424836507E-08</v>
       </c>
       <c r="U10">
-        <v>0.0008241894402381627</v>
+        <v>0.0008241897894235142</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0005067526498733968</v>
+        <v>0.0005067527182108679</v>
       </c>
       <c r="B11">
-        <v>0.2090724869524031</v>
+        <v>0.2090725142944722</v>
       </c>
       <c r="C11">
-        <v>0.01296366911384641</v>
+        <v>0.01296366956570818</v>
       </c>
       <c r="D11">
-        <v>0.0169043497437378</v>
+        <v>0.01690435042323558</v>
       </c>
       <c r="E11">
-        <v>0.5827242707995288</v>
+        <v>0.582724364721964</v>
       </c>
       <c r="F11">
-        <v>0.05504801237760216</v>
+        <v>0.05504801740950768</v>
       </c>
       <c r="G11">
-        <v>0.0001737504459450412</v>
+        <v>0.0001737504509897545</v>
       </c>
       <c r="H11">
-        <v>1.504736226593565E-05</v>
+        <v>1.504736292269428E-05</v>
       </c>
       <c r="I11">
-        <v>0.01732091803007908</v>
+        <v>0.01732092540556792</v>
       </c>
       <c r="J11">
-        <v>0.3091297003489781</v>
+        <v>0.3091297124860225</v>
       </c>
       <c r="K11">
-        <v>0.06332675915729823</v>
+        <v>0.06332675973509806</v>
       </c>
       <c r="L11">
-        <v>0.04609385922637504</v>
+        <v>0.04609385992278541</v>
       </c>
       <c r="M11">
-        <v>0.001418517225864189</v>
+        <v>0.001418518005034163</v>
       </c>
       <c r="N11">
-        <v>2.385586257878981E-07</v>
+        <v>2.385586336230771E-07</v>
       </c>
       <c r="O11">
-        <v>0.0001724650266299797</v>
+        <v>0.0001724650708447257</v>
       </c>
       <c r="P11">
-        <v>0.000421260704071798</v>
+        <v>0.0004212607923593561</v>
       </c>
       <c r="Q11">
-        <v>0.0004307689366467304</v>
+        <v>0.0004307690276407815</v>
       </c>
       <c r="R11">
-        <v>0.00378009703123981</v>
+        <v>0.003780097122739311</v>
       </c>
       <c r="S11">
-        <v>1.291043597431187E-09</v>
+        <v>1.291043711243477E-09</v>
       </c>
       <c r="T11">
-        <v>4.39819361790891E-07</v>
+        <v>4.398194425072389E-07</v>
       </c>
       <c r="U11">
-        <v>0.01027810144589906</v>
+        <v>0.01027810303049827</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.0001192919653753079</v>
+        <v>0.0001192919965551389</v>
       </c>
       <c r="B12">
-        <v>0.03489334917317206</v>
+        <v>0.03489336075732814</v>
       </c>
       <c r="C12">
-        <v>0.001836189824592488</v>
+        <v>0.001836189906111824</v>
       </c>
       <c r="D12">
-        <v>0.002402179299174434</v>
+        <v>0.002402179443072566</v>
       </c>
       <c r="E12">
-        <v>0.1782432833891236</v>
+        <v>0.1782433194924624</v>
       </c>
       <c r="F12">
-        <v>0.009993758589260562</v>
+        <v>0.009993760703358136</v>
       </c>
       <c r="G12">
-        <v>1.081381740252644E-05</v>
+        <v>1.081381899932113E-05</v>
       </c>
       <c r="H12">
-        <v>1.174326911212314E-06</v>
+        <v>1.174327190409982E-06</v>
       </c>
       <c r="I12">
-        <v>0.001592589787277892</v>
+        <v>0.001592592374790308</v>
       </c>
       <c r="J12">
-        <v>0.04410851953849972</v>
+        <v>0.04410852498009549</v>
       </c>
       <c r="K12">
-        <v>0.00293359128343562</v>
+        <v>0.002933591473774721</v>
       </c>
       <c r="L12">
-        <v>0.02273872262919504</v>
+        <v>0.02273872266354714</v>
       </c>
       <c r="M12">
-        <v>0.000205584493447456</v>
+        <v>0.0002055847543221825</v>
       </c>
       <c r="N12">
-        <v>3.356010704115455E-08</v>
+        <v>3.35601103721099E-08</v>
       </c>
       <c r="O12">
-        <v>5.088113945399308E-05</v>
+        <v>5.088115785761505E-05</v>
       </c>
       <c r="P12">
-        <v>0.0001264466374392902</v>
+        <v>0.000126446675893158</v>
       </c>
       <c r="Q12">
-        <v>0.0001309210685812298</v>
+        <v>0.0001309211084084953</v>
       </c>
       <c r="R12">
-        <v>0.0002357832532021375</v>
+        <v>0.0002357832884914757</v>
       </c>
       <c r="S12">
-        <v>3.523299667099044E-10</v>
+        <v>3.523300127581335E-10</v>
       </c>
       <c r="T12">
-        <v>8.038473633438265E-08</v>
+        <v>8.038476860255632E-08</v>
       </c>
       <c r="U12">
-        <v>0.003052920294427216</v>
+        <v>0.003052920992826609</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.0002618354205127846</v>
+        <v>0.0002618355584659964</v>
       </c>
       <c r="B13">
-        <v>0.1899908915746604</v>
+        <v>0.1899909438596323</v>
       </c>
       <c r="C13">
-        <v>0.004747113471053891</v>
+        <v>0.004747115162483856</v>
       </c>
       <c r="D13">
-        <v>0.00843400746175898</v>
+        <v>0.008434009824544661</v>
       </c>
       <c r="E13">
-        <v>3.664689031589312</v>
+        <v>3.664689272238627</v>
       </c>
       <c r="F13">
-        <v>0.05987563798961956</v>
+        <v>0.05987564760707374</v>
       </c>
       <c r="G13">
-        <v>1.357916326649924E-05</v>
+        <v>1.357917396629094E-05</v>
       </c>
       <c r="H13">
-        <v>5.34627998238163E-06</v>
+        <v>5.346281266434671E-06</v>
       </c>
       <c r="I13">
-        <v>0.009841461085655175</v>
+        <v>0.009841475650103204</v>
       </c>
       <c r="J13">
-        <v>0.1495463529518071</v>
+        <v>0.1495463880901805</v>
       </c>
       <c r="K13">
-        <v>0.00308873168226165</v>
+        <v>0.003088732948942022</v>
       </c>
       <c r="L13">
-        <v>0.007242662431978204</v>
+        <v>0.007242663513556858</v>
       </c>
       <c r="M13">
-        <v>0.002141843151618457</v>
+        <v>0.002141844715118641</v>
       </c>
       <c r="N13">
-        <v>8.674536963229437E-08</v>
+        <v>8.67453846744461E-08</v>
       </c>
       <c r="O13">
-        <v>0.0001367144889354925</v>
+        <v>0.000136714575167599</v>
       </c>
       <c r="P13">
-        <v>0.0003025578792075351</v>
+        <v>0.0003025580459784784</v>
       </c>
       <c r="Q13">
-        <v>0.0003422861698457997</v>
+        <v>0.0003422863418071465</v>
       </c>
       <c r="R13">
-        <v>0.000309291532729708</v>
+        <v>0.0003092917179620015</v>
       </c>
       <c r="S13">
-        <v>7.511046639910905E-10</v>
+        <v>7.511048827746826E-10</v>
       </c>
       <c r="T13">
-        <v>3.300479354518281E-07</v>
+        <v>3.300480951288848E-07</v>
       </c>
       <c r="U13">
-        <v>0.02586314816167398</v>
+        <v>0.02586315120907208</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>-0.000289307425401632</v>
+        <v>-0.0002893073876926201</v>
       </c>
       <c r="B14">
-        <v>-2.212358571505542</v>
+        <v>-2.2123585564605</v>
       </c>
       <c r="C14">
-        <v>-0.1786541405069669</v>
+        <v>-0.1786541401326372</v>
       </c>
       <c r="D14">
-        <v>-0.2451376798310382</v>
+        <v>-0.2451376792978837</v>
       </c>
       <c r="E14">
-        <v>-4.877639669091061</v>
+        <v>-4.877639612370397</v>
       </c>
       <c r="F14">
-        <v>-0.01684462916819053</v>
+        <v>-0.01684462631431551</v>
       </c>
       <c r="G14">
-        <v>-3.965014527316289E-05</v>
+        <v>-3.965014234758785E-05</v>
       </c>
       <c r="H14">
-        <v>-1.140632375818431E-05</v>
+        <v>-1.140632338010018E-05</v>
       </c>
       <c r="I14">
-        <v>-0.03017176559670176</v>
+        <v>-0.03017176147125926</v>
       </c>
       <c r="J14">
-        <v>-2.690031985693188</v>
+        <v>-2.690031977622826</v>
       </c>
       <c r="K14">
-        <v>-0.002513696921671623</v>
+        <v>-0.002513696552276015</v>
       </c>
       <c r="L14">
-        <v>-0.0009888861495512191</v>
+        <v>-0.0009888835533485183</v>
       </c>
       <c r="M14">
-        <v>-0.002591394889626143</v>
+        <v>-0.00259139444420209</v>
       </c>
       <c r="N14">
-        <v>-3.39843093613671E-07</v>
+        <v>-3.398430893512898E-07</v>
       </c>
       <c r="O14">
-        <v>-0.000111662901534068</v>
+        <v>-0.0001116628778347893</v>
       </c>
       <c r="P14">
-        <v>-0.0005074250298874228</v>
+        <v>-0.0005074249828884358</v>
       </c>
       <c r="Q14">
-        <v>-0.0005165058980290322</v>
+        <v>-0.0005165058491934263</v>
       </c>
       <c r="R14">
-        <v>-0.001790793880912825</v>
+        <v>-0.001790793826706711</v>
       </c>
       <c r="S14">
-        <v>-6.563365554963346E-09</v>
+        <v>-6.563365472568718E-09</v>
       </c>
       <c r="T14">
-        <v>-2.841731725910762E-06</v>
+        <v>-2.841731681345215E-06</v>
       </c>
       <c r="U14">
-        <v>-0.00658222038999241</v>
+        <v>-0.006582219466853779</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0002618354205127846</v>
+        <v>0.0002618355584659964</v>
       </c>
       <c r="B15">
-        <v>0.1899908915746604</v>
+        <v>0.1899909438596323</v>
       </c>
       <c r="C15">
-        <v>0.004747113471053891</v>
+        <v>0.004747115162483856</v>
       </c>
       <c r="D15">
-        <v>0.00843400746175898</v>
+        <v>0.008434009824544661</v>
       </c>
       <c r="E15">
-        <v>3.664689031589312</v>
+        <v>3.664689272238627</v>
       </c>
       <c r="F15">
-        <v>0.05987563798961956</v>
+        <v>0.05987564760707374</v>
       </c>
       <c r="G15">
-        <v>1.357916326649924E-05</v>
+        <v>1.357917396629094E-05</v>
       </c>
       <c r="H15">
-        <v>5.34627998238163E-06</v>
+        <v>5.346281266434671E-06</v>
       </c>
       <c r="I15">
-        <v>0.009841461085655175</v>
+        <v>0.009841475650103204</v>
       </c>
       <c r="J15">
-        <v>0.1495463529518071</v>
+        <v>0.1495463880901805</v>
       </c>
       <c r="K15">
-        <v>0.00308873168226165</v>
+        <v>0.003088732948942022</v>
       </c>
       <c r="L15">
-        <v>0.007242662431978204</v>
+        <v>0.007242663513556858</v>
       </c>
       <c r="M15">
-        <v>0.002141843151618457</v>
+        <v>0.002141844715118641</v>
       </c>
       <c r="N15">
-        <v>8.674536963229437E-08</v>
+        <v>8.67453846744461E-08</v>
       </c>
       <c r="O15">
-        <v>0.0001367144889354925</v>
+        <v>0.000136714575167599</v>
       </c>
       <c r="P15">
-        <v>0.0003025578792075351</v>
+        <v>0.0003025580459784784</v>
       </c>
       <c r="Q15">
-        <v>0.0003422861698457997</v>
+        <v>0.0003422863418071465</v>
       </c>
       <c r="R15">
-        <v>0.000309291532729708</v>
+        <v>0.0003092917179620015</v>
       </c>
       <c r="S15">
-        <v>7.511046639910905E-10</v>
+        <v>7.511048827746826E-10</v>
       </c>
       <c r="T15">
-        <v>3.300479354518281E-07</v>
+        <v>3.300480951288848E-07</v>
       </c>
       <c r="U15">
-        <v>0.02586314816167398</v>
+        <v>0.02586315120907208</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>-0.0007026134921517759</v>
+        <v>-0.000702613318449281</v>
       </c>
       <c r="B16">
-        <v>-2.881815962875566</v>
+        <v>-2.881815897212879</v>
       </c>
       <c r="C16">
-        <v>-0.1282782265084956</v>
+        <v>-0.1282782240288531</v>
       </c>
       <c r="D16">
-        <v>-0.1847671248768747</v>
+        <v>-0.1847671214745602</v>
       </c>
       <c r="E16">
-        <v>-7.120621497358712</v>
+        <v>-7.120621179329492</v>
       </c>
       <c r="F16">
-        <v>-0.07040435442381662</v>
+        <v>-0.07040434185992706</v>
       </c>
       <c r="G16">
-        <v>-0.000180400106672379</v>
+        <v>-0.0001804000931156647</v>
       </c>
       <c r="H16">
-        <v>-1.809001213219584E-05</v>
+        <v>-1.809001045978762E-05</v>
       </c>
       <c r="I16">
-        <v>-0.07859572467719271</v>
+        <v>-0.07859570700535488</v>
       </c>
       <c r="J16">
-        <v>-1.675953001626201</v>
+        <v>-1.675952954093197</v>
       </c>
       <c r="K16">
-        <v>-0.01016295399997031</v>
+        <v>-0.01016295241408918</v>
       </c>
       <c r="L16">
-        <v>-0.002969959859499055</v>
+        <v>-0.002969960479137559</v>
       </c>
       <c r="M16">
-        <v>-0.009783651826595213</v>
+        <v>-0.009783649886975773</v>
       </c>
       <c r="N16">
-        <v>-3.359771726087305E-07</v>
+        <v>-3.359771540824673E-07</v>
       </c>
       <c r="O16">
-        <v>-0.0003017861544938765</v>
+        <v>-0.0003017860492188478</v>
       </c>
       <c r="P16">
-        <v>-0.000826259732819869</v>
+        <v>-0.000826259528265447</v>
       </c>
       <c r="Q16">
-        <v>-0.0008592154634428999</v>
+        <v>-0.0008592152504692261</v>
       </c>
       <c r="R16">
-        <v>-0.003315920395876282</v>
+        <v>-0.003315920159349276</v>
       </c>
       <c r="S16">
-        <v>-8.66614095581721E-09</v>
+        <v>-8.666140698349791E-09</v>
       </c>
       <c r="T16">
-        <v>-3.515569248045878E-06</v>
+        <v>-3.515569050689353E-06</v>
       </c>
       <c r="U16">
-        <v>-0.0284815516027898</v>
+        <v>-0.02848154751019315</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>2.864624676757213E-05</v>
+        <v>2.864624472247004E-05</v>
       </c>
       <c r="B17">
-        <v>0.003759310616118079</v>
+        <v>0.003759309884453393</v>
       </c>
       <c r="C17">
-        <v>0.001987619106668385</v>
+        <v>0.001987619074715106</v>
       </c>
       <c r="D17">
-        <v>0.002554561630306291</v>
+        <v>0.002554561586640848</v>
       </c>
       <c r="E17">
-        <v>0.1695761339228903</v>
+        <v>0.1695761297150577</v>
       </c>
       <c r="F17">
-        <v>0.0009397844376320585</v>
+        <v>0.0009397843040265883</v>
       </c>
       <c r="G17">
-        <v>3.370918847431765E-06</v>
+        <v>3.370918685632587E-06</v>
       </c>
       <c r="H17">
-        <v>4.082116917917249E-07</v>
+        <v>4.082116729460727E-07</v>
       </c>
       <c r="I17">
-        <v>0.001381290280301309</v>
+        <v>0.001381290086828882</v>
       </c>
       <c r="J17">
-        <v>0.02960114935484684</v>
+        <v>0.02960114871900394</v>
       </c>
       <c r="K17">
-        <v>0.0003015982164559185</v>
+        <v>0.0003015981974631794</v>
       </c>
       <c r="L17">
-        <v>0.0001433028446780219</v>
+        <v>0.0001433028295198916</v>
       </c>
       <c r="M17">
-        <v>0.0002143244291935652</v>
+        <v>0.000214324408114014</v>
       </c>
       <c r="N17">
-        <v>1.291932126626929E-09</v>
+        <v>1.29193191052026E-09</v>
       </c>
       <c r="O17">
-        <v>1.160487895252307E-05</v>
+        <v>1.160487773156505E-05</v>
       </c>
       <c r="P17">
-        <v>1.04316866753419E-05</v>
+        <v>1.04316843775912E-05</v>
       </c>
       <c r="Q17">
-        <v>1.093469377639209E-05</v>
+        <v>1.093469141126023E-05</v>
       </c>
       <c r="R17">
-        <v>3.071787921251114E-05</v>
+        <v>3.071787654484316E-05</v>
       </c>
       <c r="S17">
-        <v>2.512252138302114E-11</v>
+        <v>2.51225182777321E-11</v>
       </c>
       <c r="T17">
-        <v>2.219409218493913E-08</v>
+        <v>2.219408994283844E-08</v>
       </c>
       <c r="U17">
-        <v>0.0002888118863436565</v>
+        <v>0.0002888118441588766</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.0008408428056643555</v>
+        <v>0.0008408427713676362</v>
       </c>
       <c r="B18">
-        <v>0.0136820872689545</v>
+        <v>0.01368207437764719</v>
       </c>
       <c r="C18">
-        <v>0.005546869708277963</v>
+        <v>0.005546869271883593</v>
       </c>
       <c r="D18">
-        <v>0.007733463723555582</v>
+        <v>0.00773346311673103</v>
       </c>
       <c r="E18">
-        <v>1.738455048137301</v>
+        <v>1.738454986958976</v>
       </c>
       <c r="F18">
-        <v>0.003682783494212889</v>
+        <v>0.003682781130043061</v>
       </c>
       <c r="G18">
-        <v>9.910059508425797E-06</v>
+        <v>9.910056864058018E-06</v>
       </c>
       <c r="H18">
-        <v>1.873306360182224E-06</v>
+        <v>1.873306042452407E-06</v>
       </c>
       <c r="I18">
-        <v>0.009664760143302954</v>
+        <v>0.009664756597384815</v>
       </c>
       <c r="J18">
-        <v>0.0997898248623954</v>
+        <v>0.09978981590620252</v>
       </c>
       <c r="K18">
-        <v>0.001680641432737954</v>
+        <v>0.001680641121657807</v>
       </c>
       <c r="L18">
-        <v>0.0004378714683557206</v>
+        <v>0.0004378712005800203</v>
       </c>
       <c r="M18">
-        <v>0.003236543736317988</v>
+        <v>0.003236543354314089</v>
       </c>
       <c r="N18">
-        <v>8.593861514866286E-09</v>
+        <v>8.593857785378478E-09</v>
       </c>
       <c r="O18">
-        <v>0.0002662046258117855</v>
+        <v>0.0002662046045499548</v>
       </c>
       <c r="P18">
-        <v>5.367532713161839E-05</v>
+        <v>5.367528602988563E-05</v>
       </c>
       <c r="Q18">
-        <v>5.56795154429814E-05</v>
+        <v>5.567947306500079E-05</v>
       </c>
       <c r="R18">
-        <v>0.0009870058867911735</v>
+        <v>0.0009870058410442872</v>
       </c>
       <c r="S18">
-        <v>2.587945823685667E-10</v>
+        <v>2.587945283172153E-10</v>
       </c>
       <c r="T18">
-        <v>2.369068128821588E-07</v>
+        <v>2.369067735949E-07</v>
       </c>
       <c r="U18">
-        <v>0.001699747037578638</v>
+        <v>0.001699746287797927</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.001960373114530896</v>
+        <v>-0.001960372429119616</v>
       </c>
       <c r="B19">
-        <v>-0.4456407525565189</v>
+        <v>-0.4456404836237076</v>
       </c>
       <c r="C19">
-        <v>-0.04537183763642504</v>
+        <v>-0.04537183034751262</v>
       </c>
       <c r="D19">
-        <v>-0.06015809489325295</v>
+        <v>-0.06015808462386072</v>
       </c>
       <c r="E19">
-        <v>-1.512130813667589</v>
+        <v>-1.512129664275158</v>
       </c>
       <c r="F19">
-        <v>-0.1105926868662346</v>
+        <v>-0.1105926361248239</v>
       </c>
       <c r="G19">
-        <v>-0.0003596276139243556</v>
+        <v>-0.0003596275609098026</v>
       </c>
       <c r="H19">
-        <v>-0.002855970019143905</v>
+        <v>-0.002855970012654005</v>
       </c>
       <c r="I19">
-        <v>-0.02563745989021084</v>
+        <v>-0.02563739101422252</v>
       </c>
       <c r="J19">
-        <v>-1.171873559644938</v>
+        <v>-1.171873395851151</v>
       </c>
       <c r="K19">
-        <v>-0.04337627044123043</v>
+        <v>-0.04337626364868707</v>
       </c>
       <c r="L19">
-        <v>-0.01734705927849379</v>
+        <v>-0.01734706136034236</v>
       </c>
       <c r="M19">
-        <v>-0.004300238903523151</v>
+        <v>-0.004300231804587321</v>
       </c>
       <c r="N19">
-        <v>-5.116583366631087E-07</v>
+        <v>-5.116582589186038E-07</v>
       </c>
       <c r="O19">
-        <v>-0.00100944547005935</v>
+        <v>-0.001009445041843813</v>
       </c>
       <c r="P19">
-        <v>-0.00115120662580118</v>
+        <v>-0.001151205780407386</v>
       </c>
       <c r="Q19">
-        <v>-0.001187084969073484</v>
+        <v>-0.00118708409203023</v>
       </c>
       <c r="R19">
-        <v>-0.003746187827225871</v>
+        <v>-0.003746186897017569</v>
       </c>
       <c r="S19">
-        <v>-2.271546257739649E-09</v>
+        <v>-2.271545209879547E-09</v>
       </c>
       <c r="T19">
-        <v>-1.410275158428661E-06</v>
+        <v>-1.410274370712806E-06</v>
       </c>
       <c r="U19">
-        <v>-0.02499608766702852</v>
+        <v>-0.02499607138607885</v>
       </c>
     </row>
   </sheetData>
